--- a/static/test.xlsx
+++ b/static/test.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C90A444C-87CC-4E54-AC28-F9B7E3B843A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711AC720-763F-41AB-AB2C-CB62AAA2062C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -649,21 +649,23 @@
       <c r="G2" s="5">
         <v>42804</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -687,21 +689,23 @@
       <c r="G3" s="5">
         <v>42804</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -725,21 +729,23 @@
       <c r="G4" s="5">
         <v>42804</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="J4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -763,21 +769,23 @@
       <c r="G5" s="5">
         <v>42804</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="J5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -801,21 +809,23 @@
       <c r="G6" s="5">
         <v>42804</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -839,21 +849,23 @@
       <c r="G7" s="5">
         <v>42804</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="K7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -877,21 +889,23 @@
       <c r="G8" s="5">
         <v>42804</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="K8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -915,21 +929,23 @@
       <c r="G9" s="5">
         <v>42804</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="N9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
